--- a/FPTree/Fptreedataset.xlsx
+++ b/FPTree/Fptreedataset.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>TID</t>
   </si>
@@ -27,34 +27,28 @@
     <t>Item</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>B, J,P</t>
-  </si>
-  <si>
-    <t>B,P</t>
-  </si>
-  <si>
-    <t>B,M,P</t>
-  </si>
-  <si>
-    <t>E,B</t>
-  </si>
-  <si>
-    <t>E,M</t>
+    <t>E, A, D, B</t>
+  </si>
+  <si>
+    <t>D,A,C,E,B</t>
+  </si>
+  <si>
+    <t>C,A,B,E</t>
+  </si>
+  <si>
+    <t>B, A, D</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D,B</t>
+  </si>
+  <si>
+    <t>A,D,E</t>
+  </si>
+  <si>
+    <t>B,C</t>
   </si>
 </sst>
 </file>
@@ -372,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,43 +383,67 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/FPTree/Fptreedataset.xlsx
+++ b/FPTree/Fptreedataset.xlsx
@@ -27,28 +27,28 @@
     <t>Item</t>
   </si>
   <si>
-    <t>E, A, D, B</t>
-  </si>
-  <si>
-    <t>D,A,C,E,B</t>
-  </si>
-  <si>
-    <t>C,A,B,E</t>
-  </si>
-  <si>
-    <t>B, A, D</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>D,B</t>
-  </si>
-  <si>
-    <t>A,D,E</t>
-  </si>
-  <si>
-    <t>B,C</t>
+    <t>M, B, D</t>
+  </si>
+  <si>
+    <t>b, z, M</t>
+  </si>
+  <si>
+    <t>M, D, C</t>
+  </si>
+  <si>
+    <t>b,z, C</t>
+  </si>
+  <si>
+    <t>B, C, D</t>
+  </si>
+  <si>
+    <t>M, D, b, z</t>
+  </si>
+  <si>
+    <t>b, z, D</t>
+  </si>
+  <si>
+    <t>B, D</t>
   </si>
 </sst>
 </file>
@@ -369,10 +369,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
